--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17220" windowHeight="5040" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17016" windowHeight="7836" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:M15"/>
+  <oleSize ref="A1:O25"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
   <si>
     <t>Tc_ID</t>
   </si>
@@ -88,9 +88,6 @@
   </si>
   <si>
     <t>wipro</t>
-  </si>
-  <si>
-    <t>Org_Name</t>
   </si>
   <si>
     <t>IndustryType</t>
@@ -522,7 +519,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -591,8 +588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -603,26 +600,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>22</v>
-      </c>
-      <c r="B1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -630,39 +627,39 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
